--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Interns.Maersk.Git\C-sharp-learning\C#SharpLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9751D45D-9C02-463D-A27A-032E3C61754E}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="1632" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>Category</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Paused</t>
+  </si>
+  <si>
+    <t>Façade,Decorater Design Pattern</t>
   </si>
 </sst>
 </file>
@@ -501,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,7 +812,7 @@
         <v>45174</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -826,7 +829,24 @@
         <v>45175</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6">
+        <v>45176</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9751D45D-9C02-463D-A27A-032E3C61754E}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D08460-F9F7-401B-A653-5AF5995CDD47}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="1632" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>Category</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Façade,Decorater Design Pattern</t>
+  </si>
+  <si>
+    <t>Composite,Flyweight,Builder Design Pattern</t>
   </si>
 </sst>
 </file>
@@ -504,11 +507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,6 +852,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45177</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D08460-F9F7-401B-A653-5AF5995CDD47}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5F171C9-FE78-4293-B70F-862A33B8168E}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="1632" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Category</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Composite,Flyweight,Builder Design Pattern</t>
+  </si>
+  <si>
+    <t>Chain Of Resposibility, State Design Pattern</t>
   </si>
 </sst>
 </file>
@@ -507,11 +510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,6 +872,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45180</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5F171C9-FE78-4293-B70F-862A33B8168E}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF3828E9-048C-43CB-ACA2-180A2661C579}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="1632" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>Category</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Chain Of Resposibility, State Design Pattern</t>
+  </si>
+  <si>
+    <t>State,Template Design Pattern</t>
   </si>
 </sst>
 </file>
@@ -510,11 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,6 +892,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6">
+        <v>45181</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF3828E9-048C-43CB-ACA2-180A2661C579}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{626AA88A-D1F1-4AA7-89C0-DC8150D3B483}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="1632" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     <t>Chain Of Resposibility, State Design Pattern</t>
   </si>
   <si>
-    <t>State,Template Design Pattern</t>
+    <t>Command,Template Design Pattern</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{626AA88A-D1F1-4AA7-89C0-DC8150D3B483}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7076E2B0-D2F4-4376-BA59-039E3985DE41}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="1632" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>Category</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Command,Template Design Pattern</t>
+  </si>
+  <si>
+    <t>Observer,Strategy Design Pattern</t>
   </si>
 </sst>
 </file>
@@ -513,11 +516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,6 +912,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45182</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7076E2B0-D2F4-4376-BA59-039E3985DE41}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F7A982B-A8C4-4DB8-BE38-36A90743A8E7}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="1632" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>Category</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Observer,Strategy Design Pattern</t>
+  </si>
+  <si>
+    <t>Memento, Mediator Design Pattern</t>
   </si>
 </sst>
 </file>
@@ -516,11 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,6 +932,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45183</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F7A982B-A8C4-4DB8-BE38-36A90743A8E7}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0372D3F1-16C1-4C79-A943-0769650F9CB0}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="1632" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>Category</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Memento, Mediator Design Pattern</t>
+  </si>
+  <si>
+    <t>Iterator Design Pattern,Fixing Bugs</t>
   </si>
 </sst>
 </file>
@@ -519,11 +522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,6 +952,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45184</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0372D3F1-16C1-4C79-A943-0769650F9CB0}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABFB5F82-00F8-4625-92A1-894D5EBDAA98}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="1632" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>Category</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Iterator Design Pattern,Fixing Bugs</t>
+  </si>
+  <si>
+    <t>File I/O</t>
   </si>
 </sst>
 </file>
@@ -522,11 +525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,6 +972,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="6">
+        <v>45187</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABFB5F82-00F8-4625-92A1-894D5EBDAA98}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5364B27-1391-4DEA-91CF-66313B5D0183}"/>
   <bookViews>
     <workbookView xWindow="4872" yWindow="1632" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>Category</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>File I/O</t>
+  </si>
+  <si>
+    <t>Collections</t>
   </si>
 </sst>
 </file>
@@ -525,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,6 +992,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45189</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5364B27-1391-4DEA-91CF-66313B5D0183}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDB1FFB1-4FCF-4256-886B-B122E5411535}"/>
   <bookViews>
-    <workbookView xWindow="4872" yWindow="1632" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
+    <workbookView xWindow="4356" yWindow="1416" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Category</t>
   </si>
@@ -144,7 +144,10 @@
     <t>File I/O</t>
   </si>
   <si>
-    <t>Collections</t>
+    <t>Collections - List, SortedList, LinkedList, HashSet, SortedSet,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collections - Dictionary, SortedDictionary, Stack, Queue, </t>
   </si>
 </sst>
 </file>
@@ -528,11 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,7 +995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1006,6 +1009,23 @@
         <v>45189</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="6">
+        <v>45190</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDB1FFB1-4FCF-4256-886B-B122E5411535}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E18B5BF6-09FC-4156-8A5F-6C930530D0CD}"/>
   <bookViews>
     <workbookView xWindow="4356" yWindow="1416" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t>Category</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t xml:space="preserve">Collections - Dictionary, SortedDictionary, Stack, Queue, </t>
+  </si>
+  <si>
+    <t>Generics,Delegates</t>
   </si>
 </sst>
 </file>
@@ -531,11 +534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,6 +1032,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45191</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E18B5BF6-09FC-4156-8A5F-6C930530D0CD}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12999CD8-B72C-419A-8A84-995659DC2CA7}"/>
   <bookViews>
     <workbookView xWindow="4356" yWindow="1416" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>Category</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Generics,Delegates</t>
+  </si>
+  <si>
+    <t>Anonymous Function, Mutlithreading, Thread Class</t>
   </si>
 </sst>
 </file>
@@ -534,11 +537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,6 +1052,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="6">
+        <v>45194</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12999CD8-B72C-419A-8A84-995659DC2CA7}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D99CEA2-DB49-4A13-96FA-C060F853A730}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="1416" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
+    <workbookView xWindow="6564" yWindow="1116" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
     <t>Generics,Delegates</t>
   </si>
   <si>
-    <t>Anonymous Function, Mutlithreading, Thread Class</t>
+    <t>Anonymous Function, Mutlithreading, Thread Class,How to pass data to thread function in type safe</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,7 +1052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D99CEA2-DB49-4A13-96FA-C060F853A730}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF8516D-E0BE-484C-83E2-BB809C71E865}"/>
   <bookViews>
     <workbookView xWindow="6564" yWindow="1116" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
   <si>
     <t>Category</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Anonymous Function, Mutlithreading, Thread Class,How to pass data to thread function in type safe</t>
+  </si>
+  <si>
+    <t>JoinMethod, IsAlive, Thread Synchronization, Lock Class</t>
   </si>
 </sst>
 </file>
@@ -537,11 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,6 +1072,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6">
+        <v>45195</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF8516D-E0BE-484C-83E2-BB809C71E865}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3932FAF6-9FFB-4D3F-B775-DC30F252E087}"/>
   <bookViews>
     <workbookView xWindow="6564" yWindow="1116" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>Category</t>
   </si>
@@ -156,7 +156,10 @@
     <t>Anonymous Function, Mutlithreading, Thread Class,How to pass data to thread function in type safe</t>
   </si>
   <si>
-    <t>JoinMethod, IsAlive, Thread Synchronization, Lock Class</t>
+    <t>JoinMethod, IsAlive, Thread Synchronization, Lock Class,How to retrieve data</t>
+  </si>
+  <si>
+    <t>Monitor Class, Mutex Class, Semaphore Class,  SemaphoreSlim Class,Notes,Performance Testing, Thread Pool, Foreground Thread, Background Thread, Auto Reset Event, Manual Reset Event,Thread Life Cycle,Thread Priority</t>
   </si>
 </sst>
 </file>
@@ -540,11 +543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,6 +1092,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="31" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="6">
+        <v>45196</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3932FAF6-9FFB-4D3F-B775-DC30F252E087}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABC6FDBB-1EAE-4D15-ADAE-4B2D7BB60AC8}"/>
   <bookViews>
     <workbookView xWindow="6564" yWindow="1116" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>Category</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Monitor Class, Mutex Class, Semaphore Class,  SemaphoreSlim Class,Notes,Performance Testing, Thread Pool, Foreground Thread, Background Thread, Auto Reset Event, Manual Reset Event,Thread Life Cycle,Thread Priority</t>
+  </si>
+  <si>
+    <t>Thread Termination,Inter-Communication in Threads, Debugging Multithreaded Applications</t>
   </si>
 </sst>
 </file>
@@ -543,11 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,6 +1112,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="6">
+        <v>45197</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABC6FDBB-1EAE-4D15-ADAE-4B2D7BB60AC8}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D441DBF4-91F7-44C6-B3CD-2C04EEA90F92}"/>
   <bookViews>
     <workbookView xWindow="6564" yWindow="1116" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
   <si>
     <t>Category</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>Thread Termination,Inter-Communication in Threads, Debugging Multithreaded Applications</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Web Services - Creating a Web Service, Consuming</t>
+  </si>
+  <si>
+    <t>Web Services - Created a Student Portal</t>
   </si>
 </sst>
 </file>
@@ -546,11 +555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,6 +1138,40 @@
         <v>7</v>
       </c>
     </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="6">
+        <v>45198</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="6">
+        <v>45172</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D441DBF4-91F7-44C6-B3CD-2C04EEA90F92}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D35F389-ADE8-41F9-8063-8657A6D948AC}"/>
   <bookViews>
     <workbookView xWindow="6564" yWindow="1116" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
     <t>Category</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Web Services - Created a Student Portal</t>
+  </si>
+  <si>
+    <t>RESTFul API - Employee Web Portal</t>
   </si>
 </sst>
 </file>
@@ -555,11 +558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,6 +1175,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="6">
+        <v>45173</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D35F389-ADE8-41F9-8063-8657A6D948AC}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4A31A87-D4FD-44EF-907C-F030572EF247}"/>
   <bookViews>
-    <workbookView xWindow="6564" yWindow="1116" windowWidth="16392" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
+    <workbookView xWindow="6468" yWindow="1116" windowWidth="16488" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
   <si>
     <t>Category</t>
   </si>
@@ -174,7 +174,10 @@
     <t>Web Services - Created a Student Portal</t>
   </si>
   <si>
-    <t>RESTFul API - Employee Web Portal</t>
+    <t>RESTFul API - Employee Web Portal using .NET Core</t>
+  </si>
+  <si>
+    <t>RESTFul API - Employee Web Portal using .NET Framework, Using PostMan, DataBase Connectivity</t>
   </si>
 </sst>
 </file>
@@ -558,11 +561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1189,6 +1192,23 @@
         <v>45173</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="6">
+        <v>45174</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4A31A87-D4FD-44EF-907C-F030572EF247}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01060378-E261-47E4-A7E2-8DB5E40B9A0C}"/>
   <bookViews>
     <workbookView xWindow="6468" yWindow="1116" windowWidth="16488" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
     <t>Category</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>RESTFul API - Employee Web Portal using .NET Framework, Using PostMan, DataBase Connectivity</t>
+  </si>
+  <si>
+    <t>Web API Consuming Part</t>
   </si>
 </sst>
 </file>
@@ -561,11 +564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,6 +1215,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="6">
+        <v>45175</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01060378-E261-47E4-A7E2-8DB5E40B9A0C}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74B97DE3-DF45-40DD-8EDF-55E58FC88C8B}"/>
   <bookViews>
-    <workbookView xWindow="6468" yWindow="1116" windowWidth="16488" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
+    <workbookView xWindow="2088" yWindow="1464" windowWidth="16488" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>Category</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>Web API Consuming Part</t>
+  </si>
+  <si>
+    <t>Web API Consuming Part- Fixing the bugs and errors</t>
+  </si>
+  <si>
+    <t>Unit Testing, Code Coverage</t>
+  </si>
+  <si>
+    <t>MockObject</t>
   </si>
 </sst>
 </file>
@@ -564,11 +573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1184,7 @@
         <v>45</v>
       </c>
       <c r="D34" s="6">
-        <v>45172</v>
+        <v>45202</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>7</v>
@@ -1192,7 +1201,7 @@
         <v>46</v>
       </c>
       <c r="D35" s="6">
-        <v>45173</v>
+        <v>45203</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>7</v>
@@ -1209,7 +1218,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="6">
-        <v>45174</v>
+        <v>45204</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>7</v>
@@ -1226,10 +1235,52 @@
         <v>48</v>
       </c>
       <c r="D37" s="6">
-        <v>45175</v>
+        <v>45205</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="6">
+        <v>45208</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="6">
+        <v>45209</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="6">
+        <v>45210</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74B97DE3-DF45-40DD-8EDF-55E58FC88C8B}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23146A6-267C-416C-8EC1-FCEE8300D6F3}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="1464" windowWidth="16488" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>Category</t>
   </si>
@@ -189,7 +189,10 @@
     <t>Unit Testing, Code Coverage</t>
   </si>
   <si>
-    <t>MockObject</t>
+    <t>MockObject,Unit Testing Using Mock Object, Custom DLL</t>
+  </si>
+  <si>
+    <t>GitHub WorkFlows</t>
   </si>
 </sst>
 </file>
@@ -573,11 +576,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,7 +1272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1280,6 +1283,20 @@
         <v>45210</v>
       </c>
       <c r="F40" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="6">
+        <v>45181</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23146A6-267C-416C-8EC1-FCEE8300D6F3}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EAEC804-23A8-403F-9A71-7C7804B3884B}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="1464" windowWidth="16488" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="55">
   <si>
     <t>Category</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>GitHub WorkFlows</t>
+  </si>
+  <si>
+    <t>LifeCycle Of Unit Test; Difference Nunit, Xunit and MSTest</t>
+  </si>
+  <si>
+    <t>Core differences Nunit, Xunit and MSTest; GitHub Workflows Componeents - Theory; Entity Framework</t>
   </si>
 </sst>
 </file>
@@ -576,11 +582,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1300,6 +1306,34 @@
         <v>8</v>
       </c>
     </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="6">
+        <v>45182</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="6">
+        <v>45186</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EAEC804-23A8-403F-9A71-7C7804B3884B}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DFCAD21-9BA7-4B54-BC28-8C8CCC023066}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="1464" windowWidth="16488" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
   <si>
     <t>Category</t>
   </si>
@@ -198,7 +198,16 @@
     <t>LifeCycle Of Unit Test; Difference Nunit, Xunit and MSTest</t>
   </si>
   <si>
-    <t>Core differences Nunit, Xunit and MSTest; GitHub Workflows Componeents - Theory; Entity Framework</t>
+    <t>Core differences Nunit, Xunit and MSTest; GitHub Workflows Components - Theory; Entity Framework</t>
+  </si>
+  <si>
+    <t>College Website Structure, Entity Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entity Framework-Local Db</t>
   </si>
 </sst>
 </file>
@@ -582,11 +591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,6 +1343,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="6">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="6">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="6">
+        <v>45189</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{5F1D5D02-ABC7-49F2-A669-03153BAF7F33}">

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DFCAD21-9BA7-4B54-BC28-8C8CCC023066}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98AAC966-0F3D-43A7-9B12-B49D23CC98B7}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="1464" windowWidth="16488" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
   <si>
     <t>Category</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Entity Framework-Local Db</t>
+  </si>
+  <si>
+    <t>CollegeLogInPortal - Project</t>
   </si>
 </sst>
 </file>
@@ -591,11 +594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,6 +1356,9 @@
       <c r="D44" s="6">
         <v>45187</v>
       </c>
+      <c r="F44" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
@@ -1364,6 +1370,9 @@
       <c r="D45" s="6">
         <v>45188</v>
       </c>
+      <c r="F45" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
@@ -1374,6 +1383,26 @@
       </c>
       <c r="D46" s="6">
         <v>45189</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="6">
+        <v>45194</v>
+      </c>
+      <c r="E47" s="6">
+        <v>45196</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98AAC966-0F3D-43A7-9B12-B49D23CC98B7}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0F37F68-F4AB-4FC2-8E38-EB2597EC00F1}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="1464" windowWidth="16488" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -597,8 +597,8 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,7 +1312,7 @@
         <v>52</v>
       </c>
       <c r="D41" s="6">
-        <v>45181</v>
+        <v>45211</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>8</v>
@@ -1326,7 +1326,7 @@
         <v>53</v>
       </c>
       <c r="D42" s="6">
-        <v>45182</v>
+        <v>45212</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>8</v>
@@ -1340,7 +1340,7 @@
         <v>54</v>
       </c>
       <c r="D43" s="6">
-        <v>45186</v>
+        <v>45216</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>7</v>
@@ -1354,7 +1354,7 @@
         <v>55</v>
       </c>
       <c r="D44" s="6">
-        <v>45187</v>
+        <v>45217</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>7</v>
@@ -1368,7 +1368,7 @@
         <v>56</v>
       </c>
       <c r="D45" s="6">
-        <v>45188</v>
+        <v>45218</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>7</v>
@@ -1382,7 +1382,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="6">
-        <v>45189</v>
+        <v>45219</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>7</v>
@@ -1396,10 +1396,10 @@
         <v>58</v>
       </c>
       <c r="D47" s="6">
-        <v>45194</v>
+        <v>45224</v>
       </c>
       <c r="E47" s="6">
-        <v>45196</v>
+        <v>45226</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>8</v>

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0F37F68-F4AB-4FC2-8E38-EB2597EC00F1}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95A4BE0D-9AB8-4E72-8C42-8E934077F877}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="1464" windowWidth="16488" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="62">
   <si>
     <t>Category</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>CollegeLogInPortal - Project</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Azure</t>
   </si>
 </sst>
 </file>
@@ -594,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozenSplit"/>
@@ -1266,6 +1275,9 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
+      <c r="B38" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="C38" s="4" t="s">
         <v>49</v>
       </c>
@@ -1280,6 +1292,9 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
+      <c r="B39" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="C39" s="4" t="s">
         <v>50</v>
       </c>
@@ -1294,6 +1309,9 @@
       <c r="A40" s="5">
         <v>39</v>
       </c>
+      <c r="B40" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="C40" s="4" t="s">
         <v>51</v>
       </c>
@@ -1308,6 +1326,9 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
+      <c r="B41" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C41" s="4" t="s">
         <v>52</v>
       </c>
@@ -1322,6 +1343,9 @@
       <c r="A42" s="5">
         <v>41</v>
       </c>
+      <c r="B42" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C42" s="4" t="s">
         <v>53</v>
       </c>
@@ -1336,6 +1360,9 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
+      <c r="B43" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C43" s="4" t="s">
         <v>54</v>
       </c>
@@ -1350,6 +1377,9 @@
       <c r="A44" s="5">
         <v>43</v>
       </c>
+      <c r="B44" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C44" s="4" t="s">
         <v>55</v>
       </c>
@@ -1364,6 +1394,9 @@
       <c r="A45" s="5">
         <v>44</v>
       </c>
+      <c r="B45" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C45" s="4" t="s">
         <v>56</v>
       </c>
@@ -1378,6 +1411,9 @@
       <c r="A46" s="5">
         <v>45</v>
       </c>
+      <c r="B46" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C46" s="4" t="s">
         <v>57</v>
       </c>
@@ -1392,6 +1428,9 @@
       <c r="A47" s="5">
         <v>46</v>
       </c>
+      <c r="B47" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C47" s="4" t="s">
         <v>58</v>
       </c>
@@ -1399,10 +1438,24 @@
         <v>45224</v>
       </c>
       <c r="E47" s="6">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="6">
+        <v>45230</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook_ManaswiniRay.xlsx
+++ b/LogBook_ManaswiniRay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.maerskgroup.com/personal/manaswini_ray_maersk_com/Documents/Documents/LogBook.Maersk.Repo/LogBook.Maersk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95A4BE0D-9AB8-4E72-8C42-8E934077F877}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{9B2E5BCD-9676-49F3-A0A7-29E010DEBC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C635383D-DE18-4B0C-8B41-1E1CDB5CD781}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="1464" windowWidth="16488" windowHeight="9156" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
   <si>
     <t>Category</t>
   </si>
@@ -219,7 +219,13 @@
     <t>Tools</t>
   </si>
   <si>
-    <t>Azure</t>
+    <t>Azure Introduction</t>
+  </si>
+  <si>
+    <t>Azure Services - Presentation</t>
+  </si>
+  <si>
+    <t>Azure Fundamentals - Resource Group, Cosmos DB, SQL DB, Storage Accounts, Blob Configuration, KeyVault, Subscriptions, Kubernetes</t>
   </si>
 </sst>
 </file>
@@ -603,11 +609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,6 +1463,46 @@
       <c r="D48" s="6">
         <v>45230</v>
       </c>
+      <c r="F48" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="6">
+        <v>45231</v>
+      </c>
+      <c r="E49" s="6">
+        <v>45233</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="6">
+        <v>45236</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
